--- a/output/google_maps_data_Kantor_Polisi_Gunungkidul.xlsx
+++ b/output/google_maps_data_Kantor_Polisi_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -508,22 +503,21 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>-7.970405</v>
+      </c>
       <c r="G2" t="n">
-        <v>-7.970405</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.605462</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polres+Gunungkidul/@-7.808582,110.2216863,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb4822c8bfc15:0xa0c6d8bc47812314!8m2!3d-7.970405!4d110.605462!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11g9vnhv53?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -543,22 +537,21 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-7.974537</v>
+      </c>
       <c r="G3" t="n">
-        <v>-7.974537</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.594431</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Wonosari/@-7.808582,110.2216863,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb3f148afc3e7:0x7b2d63c6a98b6ced!8m2!3d-7.9745371!4d110.5944305!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11ghny4jd2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -578,22 +571,21 @@
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-8.012795000000001</v>
+      </c>
       <c r="G4" t="n">
-        <v>-8.012795000000001</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.420255</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Panggang/@-7.808582,110.2216863,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bab892d81e3fb:0x8d3564d6827d506c!8m2!3d-8.0127954!4d110.420255!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1q6j72f8x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -613,22 +605,21 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-7.994504</v>
+      </c>
       <c r="G5" t="n">
-        <v>-7.994504</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.373529</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Purwosari/@-7.9945044,110.0851374,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7baba813db374b:0x5bd2ba26faf16159!8m2!3d-7.9945044!4d110.3735285!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11bc7tsj16?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -648,22 +639,21 @@
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-8.004243000000001</v>
+      </c>
       <c r="G6" t="n">
-        <v>-8.004243000000001</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.658858</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Semanu/@-8.0042426,110.3704672,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb44bd93d8b01:0x5c7e62f7b77d4051!8m2!3d-8.0042426!4d110.6588583!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11c5_0yss1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -679,22 +669,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-8.046785</v>
+      </c>
       <c r="G7" t="n">
-        <v>-8.046785</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.514373</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Saptosari/@-8.046785,110.2259819,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bae0de9db3ca1:0x857db8226997fd89!8m2!3d-8.046785!4d110.514373!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11bc7r7vnc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -710,22 +699,21 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-7.8515</v>
+      </c>
       <c r="G8" t="n">
-        <v>-7.8515</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.487338</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Patuk/@-8.046785,110.2259819,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7a51c262749921:0x94e2bf5e566c1171!8m2!3d-7.8514998!4d110.4873377!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11t5td3snf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -745,22 +733,21 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-7.88552</v>
+      </c>
       <c r="G9" t="n">
-        <v>-7.88552</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.620196</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Nglipar/@-8.046785,110.2259819,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7a497c59a3464b:0xd047d8c8137bb692!8m2!3d-7.8855202!4d110.6201956!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEGcG9saWNl4AEA!16s%2Fg%2F1q629jqv2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -784,22 +771,21 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-7.972708</v>
+      </c>
       <c r="G10" t="n">
-        <v>-7.972708</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.712797</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Ponjong/@-7.9727076,110.4244055,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb4c7c53c3481:0xceb83d3480ca6114!8m2!3d-7.9727076!4d110.7127966!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1pztl9k9_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -819,22 +805,21 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-7.971481</v>
+      </c>
       <c r="G11" t="n">
-        <v>-7.971481</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.606396</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SATLANTAS+POLRES+GUNUNG+KIDUL/@-7.9727076,110.4244055,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb367c9fb7c81:0x219fd11a24252bd!8m2!3d-7.9714813!4d110.6063957!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11kq9cl9c1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -854,22 +839,21 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-8.068877000000001</v>
+      </c>
       <c r="G12" t="n">
-        <v>-8.068877000000001</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.758595</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Rongkop/@-7.9727076,110.4244055,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bc88926a88081:0x9bd3973140ffac04!8m2!3d-8.068877!4d110.7585946!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1q62bqlkp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -885,22 +869,21 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-7.955738</v>
+      </c>
       <c r="G13" t="n">
-        <v>-7.955738</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.652838</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Karangmojo/@-7.9727076,110.4244055,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb50a66b24aff:0x18d8ae6efb002d3e!8m2!3d-7.955738!4d110.6528378!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11jtypxwpz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -916,22 +899,21 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-7.914552</v>
+      </c>
       <c r="G14" t="n">
-        <v>-7.914552</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.556011</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Playen/@-7.9145524,110.26762,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7a4d08b7924211:0x7a42b93e84516089!8m2!3d-7.9145524!4d110.5560111!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11b7tpm8bf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -951,22 +933,21 @@
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-7.844373</v>
+      </c>
       <c r="G15" t="n">
-        <v>-7.844373</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.592763</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Gedangsari/@-7.9145524,110.26762,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7a4eea8057ca67:0x2946567ac6f0f564!8m2!3d-7.8443731!4d110.5927628!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11b6tw4nfl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -986,22 +967,21 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-7.831334</v>
+      </c>
       <c r="G16" t="n">
-        <v>-7.831334</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.701945</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Ngawen/@-7.8313345,110.4135536,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7a48630b092ad7:0xdaed8d93af239286!8m2!3d-7.8313345!4d110.7019447!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEGcG9saWNl4AEA!16s%2Fg%2F1q62g5krw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1017,22 +997,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-8.115328</v>
+      </c>
       <c r="G17" t="n">
-        <v>-8.115328</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.635929</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Tepus/@-8.1153281,110.3475383,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb9fc43a223ed:0xe323be9a0d196bdd!8m2!3d-8.1153281!4d110.6359294!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11j2cc5kxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1052,22 +1031,21 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-8.162353</v>
+      </c>
       <c r="G18" t="n">
-        <v>-8.162353</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.769505</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Girisubo/@-8.1153281,110.3475383,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bc6e665399b4b:0x595eca37e352b0e8!8m2!3d-8.1623529!4d110.7695048!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11c2pwjg8w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1087,22 +1065,21 @@
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-7.966286</v>
+      </c>
       <c r="G19" t="n">
-        <v>-7.966286</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.603442</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Satuan+Polisi+Pamong+Praja+(+SATPOL-PP+)+Kabupaten+Gunungkidul/@-8.1153281,110.3475383,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb359680b920b:0x5811b90a8c709c07!8m2!3d-7.9662861!4d110.6034422!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F1ptzy26n5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1122,22 +1099,21 @@
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-7.863103</v>
+      </c>
       <c r="G20" t="n">
-        <v>-7.863103</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.725305</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Semin/@-7.8631033,110.436914,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7a35edf8fbf985:0xd8c513a2a6ee8d8c!8m2!3d-7.8631033!4d110.7253051!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11cjp7wsbc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1157,22 +1133,21 @@
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-8.064056000000001</v>
+      </c>
       <c r="G21" t="n">
-        <v>-8.064056000000001</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.578228</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Tanjungsari/@-8.0640562,110.2898364,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb0f8a9de7d67:0xeaea209e3b3ae0c1!8m2!3d-8.0640562!4d110.5782275!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11bc7qxx2n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1192,22 +1167,21 @@
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-8.002185000000001</v>
+      </c>
       <c r="G22" t="n">
-        <v>-8.002185000000001</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.512806</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Paliyan/@-8.0640562,110.2898364,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb2283a2f8c8f:0x2b0492292541d45e!8m2!3d-8.0021854!4d110.5128063!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEGcG9saWNl4AEA!16s%2Fg%2F11bbrkg76j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1227,22 +1201,21 @@
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-7.976171</v>
+      </c>
       <c r="G23" t="n">
-        <v>-7.976171</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.591505</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polres+Gunungkidul/@-8.0640562,110.2898364,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x49da4282f2b21983:0x42a042446f78a1bc!8m2!3d-7.9761705!4d110.5915045!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEQc2VjdXJpdHlfc2VydmljZeABAA!16s%2Fg%2F11y98zvcmv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1258,22 +1231,21 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>-7.970282</v>
+      </c>
       <c r="G24" t="n">
-        <v>-7.970282</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.605859</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Satreskrim+Polres+Gunungkidul/@-8.0640562,110.2898364,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb31ce44d0bd5:0xd0a46c8270b17765!8m2!3d-7.9702819!4d110.6058592!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEQY29ycG9yYXRlX29mZmljZeABAA!16s%2Fg%2F11k_bp8z0j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1288,25 +1260,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.8</v>
+        <v>-7.970233</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.970233</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.606629</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gedung+SATPAS+SIM+T.600+Polres+Gunungkidul/@-8.0640562,110.2898364,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb3989fb78c75:0x3a745524e0dd45bf!8m2!3d-7.970233!4d110.6066291!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVsWhsiGWthbnRvciBwb2xpc2kgZ3VudW5na2lkdWySARZkcml2ZXJzX2xpY2Vuc2Vfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU55TW1KbVRsTm5FQUXgAQD6AQUI8wgQPg!16s%2Fg%2F11q2y30wbz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gedung+SATPAS+SIM+T.600+Polres+Gunungkidul/@-8.0640562,110.2898364,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb3989fb78c75:0x3a745524e0dd45bf!8m2!3d-7.970233!4d110.6066291!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVsWhsiGWthbnRvciBwb2xpc2kgZ3VudW5na2lkdWySARZkcml2ZXJzX2xpY2Vuc2Vfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU55TW1KbVRsTm5FQUXgAQD6AQUI8wgQPg!16s%2Fg%2F11q2y30wbz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
